--- a/model/Documents/Modeling_Comparison.xlsx
+++ b/model/Documents/Modeling_Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamal\DataAnalyticsBootCamp\Project4\Code\project4\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nardyjh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C58C9F-3429-4554-88AB-C44F9BB1E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBBF1FA-BEE4-BD48-B5A1-DF35B367699D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8AB14A5-F23E-4500-8D23-FB66329B757E}"/>
+    <workbookView xWindow="38180" yWindow="1000" windowWidth="27080" windowHeight="16120" xr2:uid="{B8AB14A5-F23E-4500-8D23-FB66329B757E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>Model</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Max bathrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest Regressor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 bedrooms + 2 dens + 5 baths </t>
   </si>
 </sst>
 </file>
@@ -218,13 +224,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,49 +550,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B75AE3-1941-4C28-B09A-BDEAEAFF1939}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -608,7 +612,7 @@
         <v>375292.39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -628,7 +632,7 @@
         <v>356610.24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -647,30 +651,30 @@
       <c r="F6" s="1">
         <v>218776.91</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="F7">
         <v>487966.31</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -679,33 +683,30 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1">
         <v>216236.71</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
@@ -721,17 +722,17 @@
         <v>217084.18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>500</v>
       </c>
       <c r="E13">
@@ -740,15 +741,15 @@
       <c r="F13">
         <v>218776.91</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
@@ -764,15 +765,12 @@
         <v>217991.85</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -792,7 +790,7 @@
         <v>243357.76</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -811,20 +809,20 @@
       <c r="F19">
         <v>238156.27</v>
       </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H20" s="4" t="s">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
@@ -833,15 +831,15 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>222145.48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
@@ -850,15 +848,15 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <v>229318.9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
@@ -867,15 +865,15 @@
       <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>237277.97</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
@@ -884,40 +882,40 @@
       <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <v>241181.38</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>216236.71</v>
       </c>
       <c r="G29">
         <v>4276</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30" t="s">
@@ -936,8 +934,8 @@
         <v>4649000</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" t="s">
@@ -956,8 +954,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
@@ -976,8 +974,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33" t="s">
@@ -996,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>29</v>
       </c>
@@ -1007,7 +1005,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1018,7 +1016,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1026,7 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>500</v>
       </c>
       <c r="E38">
@@ -1038,7 +1036,7 @@
         <v>175601.65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +1046,7 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>500</v>
       </c>
       <c r="E39">
@@ -1056,6 +1054,17 @@
       </c>
       <c r="F39" s="1">
         <v>155688.04999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="1">
+        <v>107851.17730614801</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1079,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
